--- a/src/assets/files/40-projects.xlsx
+++ b/src/assets/files/40-projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D9AA87-98C3-4CB9-85A0-1B404EC8C233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C84A9BB-D013-4623-B8C3-D6AB5DECA228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1380" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,60 +1013,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1350,237 +1384,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AO2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="36.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="18.453125" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" style="9"/>
+    <col min="2" max="2" width="15" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="36.1796875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="8">
         <v>2</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="8">
         <v>3</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="8">
         <v>5</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="8">
         <v>6</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="8">
         <v>7</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="8">
         <v>8</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="8">
         <v>9</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="8">
         <v>10</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="8">
         <v>11</v>
       </c>
-      <c r="M1" s="14">
+      <c r="M1" s="8">
         <v>12</v>
       </c>
-      <c r="N1" s="14">
+      <c r="N1" s="8">
         <v>13</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="8">
         <v>14</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="8">
         <v>15</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="Q1" s="8">
         <v>16</v>
       </c>
-      <c r="R1" s="14">
+      <c r="R1" s="8">
         <v>17</v>
       </c>
-      <c r="S1" s="14">
+      <c r="S1" s="8">
         <v>18</v>
       </c>
-      <c r="T1" s="14">
+      <c r="T1" s="8">
         <v>19</v>
       </c>
-      <c r="U1" s="14">
+      <c r="U1" s="8">
         <v>20</v>
       </c>
-      <c r="V1" s="14">
+      <c r="V1" s="8">
         <v>21</v>
       </c>
-      <c r="W1" s="14">
+      <c r="W1" s="8">
         <v>22</v>
       </c>
-      <c r="X1" s="14">
+      <c r="X1" s="8">
         <v>23</v>
       </c>
-      <c r="Y1" s="14">
+      <c r="Y1" s="8">
         <v>24</v>
       </c>
-      <c r="Z1" s="14">
+      <c r="Z1" s="8">
         <v>25</v>
       </c>
-      <c r="AA1" s="14">
+      <c r="AA1" s="8">
         <v>26</v>
       </c>
-      <c r="AB1" s="14">
+      <c r="AB1" s="8">
         <v>27</v>
       </c>
-      <c r="AC1" s="14">
+      <c r="AC1" s="8">
         <v>28</v>
       </c>
-      <c r="AD1" s="14">
+      <c r="AD1" s="8">
         <v>29</v>
       </c>
-      <c r="AE1" s="14">
+      <c r="AE1" s="8">
         <v>30</v>
       </c>
-      <c r="AF1" s="14">
+      <c r="AF1" s="8">
         <v>31</v>
       </c>
-      <c r="AG1" s="14">
+      <c r="AG1" s="8">
         <v>32</v>
       </c>
-      <c r="AH1" s="14">
+      <c r="AH1" s="8">
         <v>33</v>
       </c>
-      <c r="AI1" s="14">
+      <c r="AI1" s="8">
         <v>34</v>
       </c>
-      <c r="AJ1" s="14">
+      <c r="AJ1" s="8">
         <v>35</v>
       </c>
-      <c r="AK1" s="14">
+      <c r="AK1" s="8">
         <v>36</v>
       </c>
-      <c r="AL1" s="14">
+      <c r="AL1" s="8">
         <v>37</v>
       </c>
-      <c r="AM1" s="14">
+      <c r="AM1" s="8">
         <v>38</v>
       </c>
-      <c r="AN1" s="14">
+      <c r="AN1" s="8">
         <v>39</v>
       </c>
-      <c r="AO1" s="14">
+      <c r="AO1" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="20" t="s">
         <v>245</v>
       </c>
       <c r="AG2" s="21" t="s">
@@ -1612,660 +1647,669 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="1">
         <v>10000</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AG3" s="1">
         <v>20000</v>
       </c>
-      <c r="AH3" s="15">
+      <c r="AH3" s="1">
         <v>4200</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI3" s="1">
         <v>8000</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="1">
         <v>5500</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AK3" s="1">
         <v>5000</v>
       </c>
-      <c r="AL3" s="15">
+      <c r="AL3" s="1">
         <v>2200</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="AM3" s="1">
         <v>30700</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="1">
         <v>3300</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="1">
         <v>7800</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>115.9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>283.99</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>9.4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>23.59</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>6.74</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>10.89</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>1.75</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <v>41.77</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <v>25.99</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="3">
         <v>1.81</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="3">
         <v>3.38</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="3">
         <v>9.08</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="3">
         <v>83</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="3">
         <v>1.53</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="3">
         <v>3.2</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="3">
         <v>0.45900000000000002</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="3">
         <v>1.84</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="3">
         <v>5.25</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="3">
         <v>171.69</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="3">
         <v>50</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="3">
         <v>6.8</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="3">
         <v>6.5</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE4" s="3">
         <v>0.52</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AG4" s="1">
         <v>18.88</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AI4" s="15">
+      <c r="AI4" s="1">
         <v>3.17</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="AL4" s="1">
         <v>7.98</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="AM4" s="1">
         <v>2.74</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN4" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO4" s="1">
         <v>7.79</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AD5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="1">
         <v>16000</v>
       </c>
-      <c r="AG5" s="15">
+      <c r="AG5" s="1">
         <v>96900</v>
       </c>
-      <c r="AH5" s="15">
+      <c r="AH5" s="1">
         <v>15300</v>
       </c>
-      <c r="AI5" s="15">
+      <c r="AI5" s="1">
         <v>48.8</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AJ5" s="1">
         <v>14200</v>
       </c>
-      <c r="AK5" s="15">
+      <c r="AK5" s="1">
         <v>14200</v>
       </c>
-      <c r="AL5" s="15">
+      <c r="AL5" s="1">
         <v>13600</v>
       </c>
-      <c r="AM5" s="15">
+      <c r="AM5" s="1">
         <v>104600</v>
       </c>
-      <c r="AN5" s="15">
+      <c r="AN5" s="1">
         <v>13000</v>
       </c>
-      <c r="AO5" s="15">
+      <c r="AO5" s="1">
         <v>78400</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:41" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="12">
         <v>6822</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>4446</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="12">
         <v>2698</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="12">
         <v>2279</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="12">
         <v>1280</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="12">
         <v>2348</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="12">
         <v>3888</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="12">
         <v>1517</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="12">
         <v>5392</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="12">
         <v>3983</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="3">
         <v>2753</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="3">
         <v>2997</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="3">
         <v>7624</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="3">
         <v>2446</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="3">
         <v>3396</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="3">
         <v>3575</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="3">
         <v>2348</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="3">
         <v>2523</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="3">
         <v>2016</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="3">
         <v>846</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="3">
         <v>2838</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3">
         <v>2016</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="3">
         <v>3097</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="3">
         <v>2674</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="17">
         <v>4037</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="3">
         <v>4141</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="3">
         <v>4486</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="3">
         <v>1276</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="18">
         <v>2793</v>
       </c>
-      <c r="AF6" s="15">
-        <v>9369</v>
-      </c>
-      <c r="AG6" s="15">
-        <v>17584</v>
-      </c>
-      <c r="AH6" s="15">
-        <v>7071</v>
-      </c>
-      <c r="AI6" s="15">
-        <v>12474</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>25619</v>
-      </c>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15">
-        <v>90844</v>
-      </c>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
+      <c r="AF6" s="6">
+        <v>2320</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>1401</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>1065</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>2578</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>1120</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>969</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>504</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>18412</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>1377</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>3167</v>
+      </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="12">
         <v>19110</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15" t="s">
+      <c r="V7" s="3"/>
+      <c r="W7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15" t="s">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15" t="s">
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" s="15" t="s">
+      <c r="AD7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AE7" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AF7" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH7" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI7" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ7" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN7" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="AO7" s="15"/>
+      <c r="AF7" s="1">
+        <v>9369</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>17584</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>7071</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>12474</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>25619</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1">
+        <v>90844</v>
+      </c>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18" t="s">
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" s="18" t="s">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="AB8" s="15"/>
+      <c r="AB8" s="3"/>
       <c r="AC8" s="19" t="s">
         <v>183</v>
       </c>
@@ -2275,201 +2319,201 @@
       <c r="AE8" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AF8" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG8" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI8" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK8" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN8" s="15">
-        <v>5200</v>
-      </c>
-      <c r="AO8" s="15"/>
+      <c r="AF8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH8" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO8" s="1"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="3">
         <v>13.9</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15" t="s">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="Y9" s="15" t="s">
+      <c r="Y9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Z9" s="15" t="s">
+      <c r="Z9" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="3">
         <v>47.3</v>
       </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AC9" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AD9" s="15" t="s">
+      <c r="AD9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AE9" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AF9">
-        <v>20400</v>
-      </c>
-      <c r="AG9" s="15">
-        <v>26400</v>
-      </c>
-      <c r="AH9">
-        <v>10900</v>
-      </c>
-      <c r="AI9" s="15">
-        <v>20600</v>
-      </c>
-      <c r="AJ9" s="15">
-        <v>24600</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>2818</v>
-      </c>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15">
-        <v>349100</v>
-      </c>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
+      <c r="AF9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AO9" s="1"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="Z10" s="18" t="s">
+      <c r="Z10" s="19" t="s">
         <v>201</v>
       </c>
       <c r="AA10" s="19" t="s">
@@ -2487,103 +2531,106 @@
       <c r="AE10" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AF10" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG10" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH10" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI10" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ10" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
+      <c r="AF10" s="4">
+        <v>20400</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>26400</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>10900</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>20600</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>24600</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>2818</v>
+      </c>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1">
+        <v>349100</v>
+      </c>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="18" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="18" t="s">
+      <c r="V11" s="3"/>
+      <c r="W11" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="Y11" s="18" t="s">
+      <c r="Y11" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="AB11" s="15" t="s">
+      <c r="AB11" s="3" t="s">
         <v>217</v>
       </c>
       <c r="AC11" s="19" t="s">
@@ -2592,662 +2639,655 @@
       <c r="AD11" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="AG11" s="15">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="AH11" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI11">
-        <v>3.28</v>
-      </c>
-      <c r="AJ11" s="15">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AK11" s="15">
-        <v>0.13</v>
-      </c>
-      <c r="AL11" s="15">
-        <v>7.45</v>
-      </c>
-      <c r="AM11" s="15">
-        <v>3.22</v>
-      </c>
-      <c r="AN11" s="15">
-        <v>0.24</v>
-      </c>
-      <c r="AO11" s="15">
-        <v>8.18</v>
-      </c>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>112.97</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>418.45</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>10.83</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <v>23.37</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>12.41</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>6.89</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="6">
         <v>2.42</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="6">
         <v>41.91</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="6">
         <v>25.97</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="3">
         <v>3.63</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="3">
         <v>11.64</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="3">
         <v>87.74</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="3">
         <v>1.68</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="3">
         <v>3.18</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="3">
         <v>1.18</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="3">
         <v>0.59</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="3">
         <v>1.83</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="3">
         <v>8.66</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="3">
         <v>170.83</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="3">
         <v>49.28</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="3">
         <v>6.83</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Z12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AB12" s="15" t="s">
+      <c r="AB12" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AC12" s="15" t="s">
+      <c r="AC12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AD12" s="3">
         <v>19.25</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12" s="3">
         <v>0.62</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AF12" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>3.28</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="29" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="W13" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X13" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y13" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB13" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD13" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE13" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF13" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="AG12" s="15" t="s">
+      <c r="AG13" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH13" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI13" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="AJ12" s="19" t="s">
+      <c r="AJ13" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK13" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AL13" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AM13" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN13" s="30" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="W13" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA13" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB13" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD13" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE13" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF13">
-        <v>2320</v>
-      </c>
-      <c r="AG13">
-        <v>1401</v>
-      </c>
-      <c r="AH13">
-        <v>1065</v>
-      </c>
-      <c r="AI13">
-        <v>2578</v>
-      </c>
-      <c r="AJ13">
-        <v>1120</v>
-      </c>
-      <c r="AK13">
-        <v>969</v>
-      </c>
-      <c r="AL13">
-        <v>504</v>
-      </c>
-      <c r="AM13">
-        <v>18412</v>
-      </c>
-      <c r="AN13">
-        <v>1377</v>
-      </c>
-      <c r="AO13">
-        <v>3167</v>
-      </c>
+      <c r="AO13" s="28"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>250</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>500</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>4643</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>2158</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>8086</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>425</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>4944</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>319</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>6659</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="2">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6">
         <v>16000</v>
       </c>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>11367</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>6821</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>706</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>3249</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>5503</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>5115</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>8461</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>3201</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6">
         <v>5949</v>
       </c>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22">
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6">
         <v>442</v>
       </c>
-      <c r="AJ19" s="22">
+      <c r="AJ19" s="6">
         <v>4631</v>
       </c>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22">
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6">
         <v>916</v>
       </c>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22">
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6">
         <v>1543</v>
       </c>
-      <c r="AO19" s="22">
+      <c r="AO19" s="6">
         <v>3956</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>135</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>460</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>39</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>66.349999999999994</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>21.5</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>7.3</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>2.99</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>50</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>26</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6">
         <v>1.6</v>
       </c>
-      <c r="AG20" s="22" t="s">
+      <c r="AG20" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AH20" s="22" t="s">
+      <c r="AH20" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AI20" s="22">
+      <c r="AI20" s="6">
         <v>7</v>
       </c>
-      <c r="AJ20" s="22">
+      <c r="AJ20" s="6">
         <v>10</v>
       </c>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22">
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
         <v>8.3789999999999996</v>
       </c>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22">
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6">
         <v>3</v>
       </c>
-      <c r="AO20" s="22">
+      <c r="AO20" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22" t="s">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="AG21" s="22" t="s">
+      <c r="AG21" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22" t="s">
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AJ21" s="22" t="s">
+      <c r="AJ21" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22" t="s">
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22" t="s">
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="AO21" s="22"/>
+      <c r="AO21" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3314,12 +3354,19 @@
     <hyperlink ref="AE8" r:id="rId61" xr:uid="{58DF434D-7461-4239-8EE4-693FA890C54B}"/>
     <hyperlink ref="AE10" r:id="rId62" xr:uid="{590E8A07-B12E-45B6-B348-0FB4F3EB238C}"/>
     <hyperlink ref="AE13" r:id="rId63" xr:uid="{C3AA6A87-703A-412D-B880-AC27AA108F06}"/>
-    <hyperlink ref="AJ12" r:id="rId64" xr:uid="{B302CE22-D6DC-47FC-A7CC-E40472C7D96C}"/>
-    <hyperlink ref="AG8" r:id="rId65" xr:uid="{A6D3C93C-42C9-446B-AA93-56B136407C53}"/>
-    <hyperlink ref="AH8" r:id="rId66" xr:uid="{75FDB2D5-0B09-4C78-871E-83F1A39F950E}"/>
-    <hyperlink ref="AH7" r:id="rId67" xr:uid="{7343D44B-C237-43D9-9BEB-C1ABD5E2799C}"/>
+    <hyperlink ref="AJ13" r:id="rId64" xr:uid="{AEC2CBD3-D504-4861-8BC6-75CAE0E1ADA6}"/>
+    <hyperlink ref="AG9" r:id="rId65" xr:uid="{4917DA76-2526-4D16-80A1-2F70F9CF06D0}"/>
+    <hyperlink ref="AH9" r:id="rId66" xr:uid="{284F0142-8D49-4932-B42C-7BC078274E4D}"/>
+    <hyperlink ref="AH8" r:id="rId67" xr:uid="{77F372B5-521A-4A20-A514-B19D7238450D}"/>
+    <hyperlink ref="AL13" r:id="rId68" xr:uid="{C1DF2936-B703-446D-9F78-DC81A92C4714}"/>
+    <hyperlink ref="AK13" r:id="rId69" xr:uid="{37417579-7F7F-4B1B-BD98-ED4B9D5A0DFE}"/>
+    <hyperlink ref="AM13" r:id="rId70" xr:uid="{619455C6-A614-458A-BA78-032D2940AEAF}"/>
+    <hyperlink ref="AN13" r:id="rId71" xr:uid="{78F590E2-C40F-4642-8673-589C192E3E4D}"/>
+    <hyperlink ref="AG13" r:id="rId72" xr:uid="{CED221BC-23BC-4021-A4BE-E57D9EF62853}"/>
+    <hyperlink ref="AH13" r:id="rId73" xr:uid="{96B11F05-934A-4F4A-8AA8-5D49A6281D07}"/>
+    <hyperlink ref="AI13" r:id="rId74" xr:uid="{A8B3E84A-D1BD-49BC-9D37-A0C1D8F13321}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
--- a/src/assets/files/40-projects.xlsx
+++ b/src/assets/files/40-projects.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgnu97AWitMWnWa/JJgMDXWNELNow=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miAzBVYqgV2UiKbBLWo5U6mzw4WFw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="290">
   <si>
     <t>Project Name</t>
   </si>
@@ -851,9 +851,6 @@
     <t>24.0239</t>
   </si>
   <si>
-    <t>https://metadata.y00ts.com/t/t00b.mp4</t>
-  </si>
-  <si>
     <t>https://metadata.degods.com/g/8059-dead.png</t>
   </si>
   <si>
@@ -900,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -995,6 +992,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1042,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1106,7 +1109,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1134,6 +1137,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3299,35 +3305,35 @@
       <c r="A21" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -3350,25 +3356,25 @@
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
       <c r="AF21" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG21" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="AG21" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8" t="s">
         <v>263</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM21" s="8"/>
       <c r="AN21" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AO21" s="8"/>
     </row>
